--- a/examples/points.xlsx
+++ b/examples/points.xlsx
@@ -320,453 +320,453 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>463.98738793571965</v>
+        <v>366.4157201655257</v>
       </c>
       <c r="B1">
-        <v>522.0336745256936</v>
+        <v>336.52945848095345</v>
       </c>
       <c r="C1">
-        <v>528.9877701301349</v>
+        <v>528.6888902871902</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>731.789896189489</v>
+        <v>616.8260343352326</v>
       </c>
       <c r="B2">
-        <v>992.9652176328098</v>
+        <v>693.9485086804574</v>
       </c>
       <c r="C2">
-        <v>704.9159102809411</v>
+        <v>123.85323225335837</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>831.1393344808199</v>
+        <v>746.1511384067948</v>
       </c>
       <c r="B3">
-        <v>522.6851699567401</v>
+        <v>242.86445805998815</v>
       </c>
       <c r="C3">
-        <v>243.67444352866136</v>
+        <v>434.0271313054773</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>744.5113976883722</v>
+        <v>702.4515753547333</v>
       </c>
       <c r="B4">
-        <v>523.5018623646215</v>
+        <v>439.11946482082516</v>
       </c>
       <c r="C4">
-        <v>197.88062958007012</v>
+        <v>857.9254778534388</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>425.12592705544216</v>
+        <v>462.6008887007916</v>
       </c>
       <c r="B5">
-        <v>138.6666967162878</v>
+        <v>335.6917995817868</v>
       </c>
       <c r="C5">
-        <v>703.2376501497548</v>
+        <v>278.4903210032858</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>153.61125956174857</v>
+        <v>973.3346901177651</v>
       </c>
       <c r="B6">
-        <v>179.6857514523384</v>
+        <v>436.993127949551</v>
       </c>
       <c r="C6">
-        <v>471.48681325185083</v>
+        <v>309.40869612290135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>168.63539739952836</v>
+        <v>913.1220281933249</v>
       </c>
       <c r="B7">
-        <v>936.6393872550182</v>
+        <v>202.3496109088164</v>
       </c>
       <c r="C7">
-        <v>48.04981908462758</v>
+        <v>441.29477500786595</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>347.9518225261093</v>
+        <v>313.2112533433484</v>
       </c>
       <c r="B8">
-        <v>979.5066811718253</v>
+        <v>471.481572762907</v>
       </c>
       <c r="C8">
-        <v>107.51866424989812</v>
+        <v>80.2384105246582</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>87.35221792986997</v>
+        <v>638.1869050452791</v>
       </c>
       <c r="B9">
-        <v>892.7323078477638</v>
+        <v>21.396741857467717</v>
       </c>
       <c r="C9">
-        <v>651.5840893692528</v>
+        <v>248.93301403596027</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>153.291763109734</v>
+        <v>802.9888490601396</v>
       </c>
       <c r="B10">
-        <v>388.6582460366335</v>
+        <v>446.9661979957082</v>
       </c>
       <c r="C10">
-        <v>849.9734690618079</v>
+        <v>106.56797119439568</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>824.3110577777747</v>
+        <v>214.20965711780855</v>
       </c>
       <c r="B11">
-        <v>982.1999901650156</v>
+        <v>663.5667517389243</v>
       </c>
       <c r="C11">
-        <v>332.65136316767223</v>
+        <v>644.5349543531562</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>140.5843055987978</v>
+        <v>191.9891364425286</v>
       </c>
       <c r="B12">
-        <v>856.5680751393636</v>
+        <v>781.3186192833672</v>
       </c>
       <c r="C12">
-        <v>263.41112666029903</v>
+        <v>845.2052911408584</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>263.1362508199911</v>
+        <v>921.8427326127374</v>
       </c>
       <c r="B13">
-        <v>217.25427194499423</v>
+        <v>169.12701889569476</v>
       </c>
       <c r="C13">
-        <v>277.7400761037584</v>
+        <v>808.2901241111039</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>567.2727684748698</v>
+        <v>124.47338231814446</v>
       </c>
       <c r="B14">
-        <v>463.6180564860436</v>
+        <v>235.000023682949</v>
       </c>
       <c r="C14">
-        <v>828.5417555345082</v>
+        <v>482.5819524771347</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>770.8918350991261</v>
+        <v>523.1931608412983</v>
       </c>
       <c r="B15">
-        <v>524.4455461774241</v>
+        <v>48.51707089489984</v>
       </c>
       <c r="C15">
-        <v>933.2493261971872</v>
+        <v>678.7530803725992</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>182.34948800241403</v>
+        <v>835.8996756945037</v>
       </c>
       <c r="B16">
-        <v>316.7928381492571</v>
+        <v>780.9073860894484</v>
       </c>
       <c r="C16">
-        <v>438.06453932143455</v>
+        <v>902.2470820754397</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>144.61847241372362</v>
+        <v>857.3663483065616</v>
       </c>
       <c r="B17">
-        <v>210.06712519783088</v>
+        <v>668.3812414416691</v>
       </c>
       <c r="C17">
-        <v>529.6028606520364</v>
+        <v>349.9754334070904</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>76.54383391446376</v>
+        <v>537.9358860419011</v>
       </c>
       <c r="B18">
-        <v>296.87797419588424</v>
+        <v>269.3789230626204</v>
       </c>
       <c r="C18">
-        <v>58.68484846111697</v>
+        <v>851.4263243344244</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>173.69390079771608</v>
+        <v>70.50848644236214</v>
       </c>
       <c r="B19">
-        <v>726.3840071089811</v>
+        <v>141.54453759868167</v>
       </c>
       <c r="C19">
-        <v>415.18981813901075</v>
+        <v>914.8076865728037</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>350.81285491307057</v>
+        <v>456.8765418124595</v>
       </c>
       <c r="B20">
-        <v>812.0550253086692</v>
+        <v>163.3376044911637</v>
       </c>
       <c r="C20">
-        <v>471.5582390612191</v>
+        <v>640.9151088095883</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>869.8015268667865</v>
+        <v>767.3097043821998</v>
       </c>
       <c r="B21">
-        <v>583.6663917043031</v>
+        <v>862.6155161562042</v>
       </c>
       <c r="C21">
-        <v>86.61160138016982</v>
+        <v>577.1323321082377</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>437.53297029844884</v>
+        <v>353.43489648767826</v>
       </c>
       <c r="B22">
-        <v>344.02679089479864</v>
+        <v>309.2797633032366</v>
       </c>
       <c r="C22">
-        <v>542.1207118333245</v>
+        <v>703.0461372479771</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>580.1815655325537</v>
+        <v>361.0129380478863</v>
       </c>
       <c r="B23">
-        <v>191.10394262444206</v>
+        <v>87.42360713770181</v>
       </c>
       <c r="C23">
-        <v>121.57668516915274</v>
+        <v>358.85327105955196</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>556.1576347312466</v>
+        <v>133.01661610376172</v>
       </c>
       <c r="B24">
-        <v>353.3518300699562</v>
+        <v>210.05640834839988</v>
       </c>
       <c r="C24">
-        <v>733.9676768776168</v>
+        <v>590.899327993091</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>134.39681447061366</v>
+        <v>746.3633514064828</v>
       </c>
       <c r="B25">
-        <v>360.06963179878744</v>
+        <v>344.2279366360468</v>
       </c>
       <c r="C25">
-        <v>910.4506706044996</v>
+        <v>769.6978318251688</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>3.557988166779756</v>
+        <v>365.05715780750944</v>
       </c>
       <c r="B26">
-        <v>540.3676753158886</v>
+        <v>483.22103741376156</v>
       </c>
       <c r="C26">
-        <v>833.2029211646549</v>
+        <v>845.0860498300588</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>366.253717855499</v>
+        <v>425.51081699536553</v>
       </c>
       <c r="B27">
-        <v>371.79348832793426</v>
+        <v>943.3278583829309</v>
       </c>
       <c r="C27">
-        <v>414.3293184565499</v>
+        <v>425.5913946423728</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1.3315271459946179</v>
+        <v>853.4163969355614</v>
       </c>
       <c r="B28">
-        <v>756.9278868689318</v>
+        <v>495.34807855146045</v>
       </c>
       <c r="C28">
-        <v>486.50175769269305</v>
+        <v>331.4801573423627</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>143.13264817144022</v>
+        <v>274.6030438317232</v>
       </c>
       <c r="B29">
-        <v>448.6255121255391</v>
+        <v>8.93960776585062</v>
       </c>
       <c r="C29">
-        <v>151.44578393315456</v>
+        <v>908.4605563951694</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>849.0439179124611</v>
+        <v>466.30851882248254</v>
       </c>
       <c r="B30">
-        <v>810.9695557707994</v>
+        <v>475.4511784929636</v>
       </c>
       <c r="C30">
-        <v>333.4184387950668</v>
+        <v>4.063907475003025</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>159.69851610815226</v>
+        <v>447.06695642253493</v>
       </c>
       <c r="B31">
-        <v>576.4980783798508</v>
+        <v>615.6333062210156</v>
       </c>
       <c r="C31">
-        <v>86.23728508961248</v>
+        <v>114.28262611639721</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>553.0961416002741</v>
+        <v>781.3504808969084</v>
       </c>
       <c r="B32">
-        <v>744.017853037103</v>
+        <v>858.9090013892452</v>
       </c>
       <c r="C32">
-        <v>363.9569559369322</v>
+        <v>593.2366530972713</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>138.09248977212127</v>
+        <v>455.766368733985</v>
       </c>
       <c r="B33">
-        <v>167.36656627716698</v>
+        <v>739.2774131150993</v>
       </c>
       <c r="C33">
-        <v>520.7013217273606</v>
+        <v>933.2376593647689</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>204.3537451209714</v>
+        <v>222.7251403852621</v>
       </c>
       <c r="B34">
-        <v>895.7870656375997</v>
+        <v>426.9624382191801</v>
       </c>
       <c r="C34">
-        <v>170.11583684480047</v>
+        <v>352.79567356096965</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>120.9901464152023</v>
+        <v>962.069692504284</v>
       </c>
       <c r="B35">
-        <v>620.6973399291957</v>
+        <v>752.228250247717</v>
       </c>
       <c r="C35">
-        <v>218.30926671071447</v>
+        <v>869.1826714061584</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>339.62840390424424</v>
+        <v>715.7825617017224</v>
       </c>
       <c r="B36">
-        <v>13.733399993208316</v>
+        <v>881.2841452198428</v>
       </c>
       <c r="C36">
-        <v>567.5072301507986</v>
+        <v>917.5723784662488</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>206.5196944817236</v>
+        <v>643.4176099609031</v>
       </c>
       <c r="B37">
-        <v>382.80605797108825</v>
+        <v>691.3333995555605</v>
       </c>
       <c r="C37">
-        <v>354.0258374917229</v>
+        <v>813.2772883848382</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>129.70697326790813</v>
+        <v>41.506771459249265</v>
       </c>
       <c r="B38">
-        <v>472.37310162666364</v>
+        <v>808.4740392015175</v>
       </c>
       <c r="C38">
-        <v>714.400982522249</v>
+        <v>937.1771065825201</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>861.9204950230729</v>
+        <v>0.09683582551061894</v>
       </c>
       <c r="B39">
-        <v>99.42186386144087</v>
+        <v>186.84620891641092</v>
       </c>
       <c r="C39">
-        <v>361.1682296078545</v>
+        <v>819.9813356842263</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>33.39602642005842</v>
+        <v>458.56370173786604</v>
       </c>
       <c r="B40">
-        <v>214.62363183510988</v>
+        <v>690.8914879519235</v>
       </c>
       <c r="C40">
-        <v>850.7740337302871</v>
+        <v>22.468303372149485</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>477.7357031279692</v>
+        <v>332.97115755662116</v>
       </c>
       <c r="B41">
-        <v>335.7279734749264</v>
+        <v>972.7883387694164</v>
       </c>
       <c r="C41">
-        <v>661.591666130809</v>
+        <v>656.7273776195251</v>
       </c>
     </row>
   </sheetData>
